--- a/Daily/Forecast/Non-Stationarity/Square Log-Price/toyota.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Square Log-Price/toyota.xlsx
@@ -417,13 +417,13 @@
         <v>2584</v>
       </c>
       <c r="C2">
-        <v>60.02442273194335</v>
+        <v>60.024676537378</v>
       </c>
       <c r="D2">
-        <v>58.27903573265684</v>
+        <v>58.27928556913878</v>
       </c>
       <c r="E2">
-        <v>61.76980973122986</v>
+        <v>61.77006750561722</v>
       </c>
       <c r="F2">
         <v>59.59867700059571</v>
@@ -437,13 +437,13 @@
         <v>2585</v>
       </c>
       <c r="C3">
-        <v>59.59457590978413</v>
+        <v>59.59809521813396</v>
       </c>
       <c r="D3">
-        <v>57.84944923012591</v>
+        <v>57.85296454387856</v>
       </c>
       <c r="E3">
-        <v>61.33970258944234</v>
+        <v>61.34322589238936</v>
       </c>
       <c r="F3">
         <v>59.53689159506147</v>
@@ -457,13 +457,13 @@
         <v>2586</v>
       </c>
       <c r="C4">
-        <v>59.53581248548791</v>
+        <v>59.53630978743584</v>
       </c>
       <c r="D4">
-        <v>57.79102188466451</v>
+        <v>57.79151496272948</v>
       </c>
       <c r="E4">
-        <v>61.28060308631131</v>
+        <v>61.2811046121422</v>
       </c>
       <c r="F4">
         <v>59.36065422724393</v>
@@ -477,13 +477,13 @@
         <v>2587</v>
       </c>
       <c r="C5">
-        <v>59.35857783702015</v>
+        <v>59.36006841753758</v>
       </c>
       <c r="D5">
-        <v>57.61411142496098</v>
+        <v>57.61559765012034</v>
       </c>
       <c r="E5">
-        <v>61.10304424907932</v>
+        <v>61.10453918495483</v>
       </c>
       <c r="F5">
         <v>59.51280567486137</v>
@@ -497,13 +497,13 @@
         <v>2588</v>
       </c>
       <c r="C6">
-        <v>59.51349017583941</v>
+        <v>59.51220224605007</v>
       </c>
       <c r="D6">
-        <v>57.76935072205621</v>
+        <v>57.7680584258616</v>
       </c>
       <c r="E6">
-        <v>61.25762962962261</v>
+        <v>61.25634606623854</v>
       </c>
       <c r="F6">
         <v>59.2281903656357</v>
@@ -517,13 +517,13 @@
         <v>2589</v>
       </c>
       <c r="C7">
-        <v>59.22532377019422</v>
+        <v>59.22760730123576</v>
       </c>
       <c r="D7">
-        <v>57.48148651229157</v>
+        <v>57.48376623447841</v>
       </c>
       <c r="E7">
-        <v>60.96916102809686</v>
+        <v>60.97144836799312</v>
       </c>
       <c r="F7">
         <v>59.37801012433103</v>
@@ -537,13 +537,13 @@
         <v>2590</v>
       </c>
       <c r="C8">
-        <v>59.37851407070622</v>
+        <v>59.37740652847883</v>
       </c>
       <c r="D8">
-        <v>57.63500295975116</v>
+        <v>57.63389229950302</v>
       </c>
       <c r="E8">
-        <v>61.12202518166129</v>
+        <v>61.12092075745463</v>
       </c>
       <c r="F8">
         <v>59.48868698383614</v>
@@ -557,13 +557,13 @@
         <v>2591</v>
       </c>
       <c r="C9">
-        <v>59.48895257333297</v>
+        <v>59.48810526803296</v>
       </c>
       <c r="D9">
-        <v>57.74577347919038</v>
+        <v>57.74492252992622</v>
       </c>
       <c r="E9">
-        <v>61.23213166747555</v>
+        <v>61.2312880061397</v>
       </c>
       <c r="F9">
         <v>59.9178853831088</v>
@@ -577,13 +577,13 @@
         <v>2592</v>
       </c>
       <c r="C10">
-        <v>59.92076981550224</v>
+        <v>59.9172948641812</v>
       </c>
       <c r="D10">
-        <v>58.17784884886179</v>
+        <v>58.17436982919674</v>
       </c>
       <c r="E10">
-        <v>61.66369078214269</v>
+        <v>61.66021989916566</v>
       </c>
       <c r="F10">
         <v>59.88756999243997</v>
@@ -597,13 +597,13 @@
         <v>2593</v>
       </c>
       <c r="C11">
-        <v>59.88671451364616</v>
+        <v>59.88698864563516</v>
       </c>
       <c r="D11">
-        <v>58.1441291929005</v>
+        <v>58.14439945599466</v>
       </c>
       <c r="E11">
-        <v>61.62929983439182</v>
+        <v>61.62957783527565</v>
       </c>
       <c r="F11">
         <v>59.97500713605569</v>
@@ -617,13 +617,13 @@
         <v>2594</v>
       </c>
       <c r="C12">
-        <v>59.97505108205898</v>
+        <v>59.97442406443446</v>
       </c>
       <c r="D12">
-        <v>58.23279768260615</v>
+        <v>58.23216749244608</v>
       </c>
       <c r="E12">
-        <v>61.71730448151182</v>
+        <v>61.71668063642284</v>
       </c>
       <c r="F12">
         <v>60.08870326157296</v>
@@ -637,13 +637,13 @@
         <v>2595</v>
       </c>
       <c r="C13">
-        <v>60.08902594445502</v>
+        <v>60.08812298398742</v>
       </c>
       <c r="D13">
-        <v>58.3471034798219</v>
+        <v>58.34619663675604</v>
       </c>
       <c r="E13">
-        <v>61.83094840908815</v>
+        <v>61.8300493312188</v>
       </c>
       <c r="F13">
         <v>60.17184242010016</v>
@@ -657,13 +657,13 @@
         <v>2596</v>
       </c>
       <c r="C14">
-        <v>60.17192639658156</v>
+        <v>60.17126182793439</v>
       </c>
       <c r="D14">
-        <v>58.43033659830841</v>
+        <v>58.42966804319706</v>
       </c>
       <c r="E14">
-        <v>61.91351619485472</v>
+        <v>61.91285561267171</v>
       </c>
       <c r="F14">
         <v>60.19173819278953</v>
@@ -677,13 +677,13 @@
         <v>2597</v>
       </c>
       <c r="C15">
-        <v>60.19130627486908</v>
+        <v>60.19113841541056</v>
       </c>
       <c r="D15">
-        <v>58.45005160169956</v>
+        <v>58.44987956350682</v>
       </c>
       <c r="E15">
-        <v>61.93256094803861</v>
+        <v>61.93239726731431</v>
       </c>
       <c r="F15">
         <v>60.09870048417318</v>
@@ -697,13 +697,13 @@
         <v>2598</v>
       </c>
       <c r="C16">
-        <v>60.09735937550116</v>
+        <v>60.09812043828295</v>
       </c>
       <c r="D16">
-        <v>58.35643624774036</v>
+        <v>58.35719333175993</v>
       </c>
       <c r="E16">
-        <v>61.83828250326195</v>
+        <v>61.83904754480598</v>
       </c>
       <c r="F16">
         <v>59.91451955824742</v>
@@ -717,13 +717,13 @@
         <v>2599</v>
       </c>
       <c r="C17">
-        <v>59.91241016374011</v>
+        <v>59.91393946217259</v>
       </c>
       <c r="D17">
-        <v>58.17180762604131</v>
+        <v>58.1733329757139</v>
       </c>
       <c r="E17">
-        <v>61.65301270143891</v>
+        <v>61.65454594863129</v>
       </c>
       <c r="F17">
         <v>59.64658395956791</v>
@@ -737,13 +737,13 @@
         <v>2600</v>
       </c>
       <c r="C18">
-        <v>59.64371242889161</v>
+        <v>59.6460020983743</v>
       </c>
       <c r="D18">
-        <v>57.90341475859805</v>
+        <v>57.90569998138112</v>
       </c>
       <c r="E18">
-        <v>61.38401009918518</v>
+        <v>61.38630421536749</v>
       </c>
       <c r="F18">
         <v>59.30848422563876</v>
@@ -757,13 +757,13 @@
         <v>2601</v>
       </c>
       <c r="C19">
-        <v>59.30480924289196</v>
+        <v>59.30790000944805</v>
       </c>
       <c r="D19">
-        <v>57.56479843057389</v>
+        <v>57.56788405516497</v>
       </c>
       <c r="E19">
-        <v>61.04482005521002</v>
+        <v>61.04791596373114</v>
       </c>
       <c r="F19">
         <v>59.2176903389801</v>
@@ -777,13 +777,13 @@
         <v>2602</v>
       </c>
       <c r="C20">
-        <v>59.21627896945133</v>
+        <v>59.21709436701645</v>
       </c>
       <c r="D20">
-        <v>57.4765993231314</v>
+        <v>57.47740920769735</v>
       </c>
       <c r="E20">
-        <v>60.95595861577127</v>
+        <v>60.95677952633555</v>
       </c>
       <c r="F20">
         <v>59.31196701287308</v>
@@ -797,13 +797,13 @@
         <v>2603</v>
       </c>
       <c r="C21">
-        <v>59.31226247246072</v>
+        <v>59.31138373838947</v>
       </c>
       <c r="D21">
-        <v>57.5729130628111</v>
+        <v>57.57202911939948</v>
       </c>
       <c r="E21">
-        <v>61.05161188211033</v>
+        <v>61.05073835737947</v>
       </c>
       <c r="F21">
         <v>59.35718100560436</v>
@@ -817,13 +817,13 @@
         <v>2604</v>
       </c>
       <c r="C22">
-        <v>59.35701058424095</v>
+        <v>59.35651933403814</v>
       </c>
       <c r="D22">
-        <v>57.6179944313923</v>
+        <v>57.61749692833455</v>
       </c>
       <c r="E22">
-        <v>61.0960267370896</v>
+        <v>61.09554173974173</v>
       </c>
       <c r="F22">
         <v>59.50936215615963</v>
@@ -837,13 +837,13 @@
         <v>2605</v>
       </c>
       <c r="C23">
-        <v>59.5102059658544</v>
+        <v>59.50878042493815</v>
       </c>
       <c r="D23">
-        <v>57.77151380005107</v>
+        <v>57.77008288691974</v>
       </c>
       <c r="E23">
-        <v>61.24889813165773</v>
+        <v>61.24747796295657</v>
       </c>
       <c r="F23">
         <v>59.85720280798407</v>
@@ -857,13 +857,13 @@
         <v>2606</v>
       </c>
       <c r="C24">
-        <v>59.85999809029592</v>
+        <v>59.85662263491044</v>
       </c>
       <c r="D24">
-        <v>58.12158840261853</v>
+        <v>58.11820731064553</v>
       </c>
       <c r="E24">
-        <v>61.59840777797331</v>
+        <v>61.59503795917534</v>
       </c>
       <c r="F24">
         <v>59.8301661215469</v>
@@ -877,13 +877,13 @@
         <v>2607</v>
       </c>
       <c r="C25">
-        <v>59.82928264729458</v>
+        <v>59.82958046179943</v>
       </c>
       <c r="D25">
-        <v>58.09120615380947</v>
+        <v>58.09149821765013</v>
       </c>
       <c r="E25">
-        <v>61.5673591407797</v>
+        <v>61.56766270594873</v>
       </c>
       <c r="F25">
         <v>59.8335479580433</v>
@@ -897,13 +897,13 @@
         <v>2608</v>
       </c>
       <c r="C26">
-        <v>59.83294989463551</v>
+        <v>59.8329685572139</v>
       </c>
       <c r="D26">
-        <v>58.09520610632647</v>
+        <v>58.09521963420958</v>
       </c>
       <c r="E26">
-        <v>61.57069368294455</v>
+        <v>61.57071748021821</v>
       </c>
       <c r="F26">
         <v>60.0787004208345</v>
@@ -917,13 +917,13 @@
         <v>2609</v>
       </c>
       <c r="C27">
-        <v>60.08049855325675</v>
+        <v>60.07812131333635</v>
       </c>
       <c r="D27">
-        <v>58.34306284392964</v>
+        <v>58.34067989667693</v>
       </c>
       <c r="E27">
-        <v>61.81793426258387</v>
+        <v>61.81556272999578</v>
       </c>
       <c r="F27">
         <v>60.21492187575748</v>
@@ -937,13 +937,13 @@
         <v>2610</v>
       </c>
       <c r="C28">
-        <v>60.21566768688083</v>
+        <v>60.21432835640126</v>
       </c>
       <c r="D28">
-        <v>58.47855720817473</v>
+        <v>58.47721172788658</v>
       </c>
       <c r="E28">
-        <v>61.95277816558692</v>
+        <v>61.95144498491594</v>
       </c>
       <c r="F28">
         <v>60.0653545489122</v>
@@ -957,13 +957,13 @@
         <v>2611</v>
       </c>
       <c r="C29">
-        <v>60.06328627745103</v>
+        <v>60.06477361377303</v>
       </c>
       <c r="D29">
-        <v>58.32649892148083</v>
+        <v>58.32798040350396</v>
       </c>
       <c r="E29">
-        <v>61.80007363342122</v>
+        <v>61.80156682404209</v>
       </c>
       <c r="F29">
         <v>60.05533857304125</v>
@@ -977,13 +977,13 @@
         <v>2612</v>
       </c>
       <c r="C30">
-        <v>60.05467077011895</v>
+        <v>60.05475671173959</v>
       </c>
       <c r="D30">
-        <v>58.31821587857311</v>
+        <v>58.31829594758345</v>
       </c>
       <c r="E30">
-        <v>61.7911256616648</v>
+        <v>61.79121747589573</v>
       </c>
       <c r="F30">
         <v>59.98506842646821</v>
@@ -997,13 +997,13 @@
         <v>2613</v>
       </c>
       <c r="C31">
-        <v>59.98376370162264</v>
+        <v>59.98441721778057</v>
       </c>
       <c r="D31">
-        <v>58.24763866453047</v>
+        <v>58.24828586240895</v>
       </c>
       <c r="E31">
-        <v>61.71988873871481</v>
+        <v>61.7205485731522</v>
       </c>
       <c r="F31">
         <v>60.48754015531932</v>
@@ -1017,13 +1017,13 @@
         <v>2614</v>
       </c>
       <c r="C32">
-        <v>60.49177821812746</v>
+        <v>60.48695878683225</v>
       </c>
       <c r="D32">
-        <v>58.75587833599231</v>
+        <v>58.7510533187303</v>
       </c>
       <c r="E32">
-        <v>62.22767810026261</v>
+        <v>62.22286425493421</v>
       </c>
       <c r="F32">
         <v>60.87128014722256</v>
@@ -1037,13 +1037,13 @@
         <v>2615</v>
       </c>
       <c r="C33">
-        <v>60.87482576854614</v>
+        <v>60.87070020615355</v>
       </c>
       <c r="D33">
-        <v>59.13919702538077</v>
+        <v>59.13506423688307</v>
       </c>
       <c r="E33">
-        <v>62.6104545117115</v>
+        <v>62.60633617542403</v>
       </c>
       <c r="F33">
         <v>61.23133725218499</v>
@@ -1057,13 +1057,13 @@
         <v>2616</v>
       </c>
       <c r="C34">
-        <v>61.23497100881234</v>
+        <v>61.23076018133913</v>
       </c>
       <c r="D34">
-        <v>59.49962036954506</v>
+        <v>59.49540102814247</v>
       </c>
       <c r="E34">
-        <v>62.97032164807961</v>
+        <v>62.96611933453578</v>
       </c>
       <c r="F34">
         <v>60.62715512369962</v>
@@ -1077,13 +1077,13 @@
         <v>2617</v>
       </c>
       <c r="C35">
-        <v>60.62027470337772</v>
+        <v>60.62657573854117</v>
       </c>
       <c r="D35">
-        <v>58.8850993954314</v>
+        <v>58.89139395364196</v>
       </c>
       <c r="E35">
-        <v>62.35545001132403</v>
+        <v>62.36175752344038</v>
       </c>
       <c r="F35">
         <v>60.82016158227118</v>
@@ -1097,13 +1097,13 @@
         <v>2618</v>
       </c>
       <c r="C36">
-        <v>60.82146633246496</v>
+        <v>60.81958273696794</v>
       </c>
       <c r="D36">
-        <v>59.08660562983803</v>
+        <v>59.08471655914268</v>
       </c>
       <c r="E36">
-        <v>62.5563270350919</v>
+        <v>62.5544489147932</v>
       </c>
       <c r="F36">
         <v>60.86170653231932</v>
@@ -1117,13 +1117,13 @@
         <v>2619</v>
       </c>
       <c r="C37">
-        <v>60.86150171902607</v>
+        <v>60.86112807772314</v>
       </c>
       <c r="D37">
-        <v>59.12697158286279</v>
+        <v>59.12659239879177</v>
       </c>
       <c r="E37">
-        <v>62.59603185518934</v>
+        <v>62.5956637566545</v>
       </c>
       <c r="F37">
         <v>60.73035111069919</v>
@@ -1137,13 +1137,13 @@
         <v>2620</v>
       </c>
       <c r="C38">
-        <v>60.72851235292799</v>
+        <v>60.72977095827191</v>
       </c>
       <c r="D38">
-        <v>58.99430592822537</v>
+        <v>58.99555906265876</v>
       </c>
       <c r="E38">
-        <v>62.4627187776306</v>
+        <v>62.46398285388505</v>
       </c>
       <c r="F38">
         <v>60.54936512348824</v>
@@ -1157,13 +1157,13 @@
         <v>2621</v>
       </c>
       <c r="C39">
-        <v>60.54703845602201</v>
+        <v>60.54878544313976</v>
       </c>
       <c r="D39">
-        <v>58.81314934545228</v>
+        <v>58.81489063777465</v>
       </c>
       <c r="E39">
-        <v>62.28092756659174</v>
+        <v>62.28268024850488</v>
       </c>
       <c r="F39">
         <v>60.76568759833551</v>
@@ -1177,13 +1177,13 @@
         <v>2622</v>
       </c>
       <c r="C40">
-        <v>60.76716347558951</v>
+        <v>60.76507473899949</v>
       </c>
       <c r="D40">
-        <v>59.03358488097885</v>
+        <v>59.03149034129655</v>
       </c>
       <c r="E40">
-        <v>62.50074207020018</v>
+        <v>62.49865913670242</v>
       </c>
       <c r="F40">
         <v>60.63038903419823</v>
@@ -1197,13 +1197,13 @@
         <v>2623</v>
       </c>
       <c r="C41">
-        <v>60.62853977683667</v>
+        <v>60.62980974251645</v>
       </c>
       <c r="D41">
-        <v>58.89528372175081</v>
+        <v>58.8965485678011</v>
       </c>
       <c r="E41">
-        <v>62.36179583192253</v>
+        <v>62.36307091723179</v>
       </c>
       <c r="F41">
         <v>60.70138740631803</v>
@@ -1217,13 +1217,13 @@
         <v>2624</v>
       </c>
       <c r="C42">
-        <v>60.70146429131152</v>
+        <v>60.70080910129793</v>
       </c>
       <c r="D42">
-        <v>58.96853633879147</v>
+        <v>58.96787608525216</v>
       </c>
       <c r="E42">
-        <v>62.43439224383157</v>
+        <v>62.43374211734371</v>
       </c>
       <c r="F42">
         <v>60.38620580664556</v>
@@ -1237,13 +1237,13 @@
         <v>2625</v>
       </c>
       <c r="C43">
-        <v>60.38278561122267</v>
+        <v>60.38562304154346</v>
       </c>
       <c r="D43">
-        <v>58.65014574872035</v>
+        <v>58.65297824884654</v>
       </c>
       <c r="E43">
-        <v>62.11542547372498</v>
+        <v>62.11826783424038</v>
       </c>
       <c r="F43">
         <v>60.42877094297302</v>
@@ -1257,13 +1257,13 @@
         <v>2626</v>
       </c>
       <c r="C44">
-        <v>60.42858965872448</v>
+        <v>60.42819197204499</v>
       </c>
       <c r="D44">
-        <v>58.69627884505361</v>
+        <v>58.69587637777721</v>
       </c>
       <c r="E44">
-        <v>62.16090047239534</v>
+        <v>62.16050756631277</v>
       </c>
       <c r="F44">
         <v>60.24468520687779</v>
@@ -1277,13 +1277,13 @@
         <v>2627</v>
       </c>
       <c r="C45">
-        <v>60.24247401482342</v>
+        <v>60.24410493062326</v>
       </c>
       <c r="D45">
-        <v>58.51047863955872</v>
+        <v>58.5121048283068</v>
       </c>
       <c r="E45">
-        <v>61.97446939008811</v>
+        <v>61.97610503293971</v>
       </c>
       <c r="F45">
         <v>60.29418055555264</v>
@@ -1297,13 +1297,13 @@
         <v>2628</v>
       </c>
       <c r="C46">
-        <v>60.29404373081746</v>
+        <v>60.29360080690893</v>
       </c>
       <c r="D46">
-        <v>58.56237679896456</v>
+        <v>58.56192921788085</v>
       </c>
       <c r="E46">
-        <v>62.02571066267035</v>
+        <v>62.02527239593702</v>
       </c>
       <c r="F46">
         <v>60.68527615992139</v>
@@ -1317,13 +1317,13 @@
         <v>2629</v>
       </c>
       <c r="C47">
-        <v>60.68803640674894</v>
+        <v>60.68469708974013</v>
       </c>
       <c r="D47">
-        <v>58.95663248432574</v>
+        <v>58.95329019007411</v>
       </c>
       <c r="E47">
-        <v>62.41944032917214</v>
+        <v>62.41610398940615</v>
       </c>
       <c r="F47">
         <v>60.64654981315199</v>
@@ -1337,13 +1337,13 @@
         <v>2630</v>
       </c>
       <c r="C48">
-        <v>60.64559590730515</v>
+        <v>60.645964104158</v>
       </c>
       <c r="D48">
-        <v>58.91452226291624</v>
+        <v>58.91488570037586</v>
       </c>
       <c r="E48">
-        <v>62.37666955169406</v>
+        <v>62.37704250794015</v>
       </c>
       <c r="F48">
         <v>60.57857608847007</v>
@@ -1357,13 +1357,13 @@
         <v>2631</v>
       </c>
       <c r="C49">
-        <v>60.57738178356117</v>
+        <v>60.57799783324619</v>
       </c>
       <c r="D49">
-        <v>58.84663506622837</v>
+        <v>58.84724660581735</v>
       </c>
       <c r="E49">
-        <v>62.30812850089398</v>
+        <v>62.30874906067503</v>
       </c>
       <c r="F49">
         <v>60.54611650939311</v>
@@ -1377,13 +1377,13 @@
         <v>2632</v>
       </c>
       <c r="C50">
-        <v>60.5452515374153</v>
+        <v>60.54553837431661</v>
       </c>
       <c r="D50">
-        <v>58.81483340699466</v>
+        <v>58.81511553726578</v>
       </c>
       <c r="E50">
-        <v>62.27566966783593</v>
+        <v>62.27596121136744</v>
       </c>
       <c r="F50">
         <v>60.81376148121085</v>
@@ -1397,13 +1397,13 @@
         <v>2633</v>
       </c>
       <c r="C51">
-        <v>60.81551635608535</v>
+        <v>60.81318401716074</v>
       </c>
       <c r="D51">
-        <v>59.08539651520002</v>
+        <v>59.0830595187993</v>
       </c>
       <c r="E51">
-        <v>62.54563619697068</v>
+        <v>62.54330851552217</v>
       </c>
       <c r="F51">
         <v>60.78172658602586</v>
@@ -1417,13 +1417,13 @@
         <v>2634</v>
       </c>
       <c r="C52">
-        <v>60.78084555309587</v>
+        <v>60.78114655590593</v>
       </c>
       <c r="D52">
-        <v>59.05105367028808</v>
+        <v>59.05135005752306</v>
       </c>
       <c r="E52">
-        <v>62.51063743590365</v>
+        <v>62.51094305428881</v>
       </c>
       <c r="F52">
         <v>60.94133064221778</v>
@@ -1437,13 +1437,13 @@
         <v>2635</v>
       </c>
       <c r="C53">
-        <v>60.94213132965115</v>
+        <v>60.9407355222918</v>
       </c>
       <c r="D53">
-        <v>59.21265687005211</v>
+        <v>59.2112563052056</v>
       </c>
       <c r="E53">
-        <v>62.6716057892502</v>
+        <v>62.670214739378</v>
       </c>
       <c r="F53">
         <v>61.30933977326856</v>
@@ -1457,13 +1457,13 @@
         <v>2636</v>
       </c>
       <c r="C54">
-        <v>61.31207799938935</v>
+        <v>61.30874803227952</v>
       </c>
       <c r="D54">
-        <v>59.58287486633368</v>
+        <v>59.57953972948891</v>
       </c>
       <c r="E54">
-        <v>63.04128113244502</v>
+        <v>63.03795633507013</v>
       </c>
       <c r="F54">
         <v>61.33733791251067</v>
@@ -1477,13 +1477,13 @@
         <v>2637</v>
       </c>
       <c r="C55">
-        <v>61.33697994947064</v>
+        <v>61.33675959345638</v>
       </c>
       <c r="D55">
-        <v>59.60810444121119</v>
+        <v>59.60787902581054</v>
       </c>
       <c r="E55">
-        <v>63.06585545773009</v>
+        <v>63.06564016110222</v>
       </c>
       <c r="F55">
         <v>61.81583555688955</v>
@@ -1497,13 +1497,13 @@
         <v>2638</v>
       </c>
       <c r="C56">
-        <v>61.81965000945284</v>
+        <v>61.81525415848204</v>
       </c>
       <c r="D56">
-        <v>60.09100570834038</v>
+        <v>60.08660465169741</v>
       </c>
       <c r="E56">
-        <v>63.54829431056529</v>
+        <v>63.54390366526668</v>
       </c>
       <c r="F56">
         <v>61.76430506846258</v>
@@ -1517,13 +1517,13 @@
         <v>2639</v>
       </c>
       <c r="C57">
-        <v>61.76320896733381</v>
+        <v>61.76274130486604</v>
       </c>
       <c r="D57">
-        <v>60.03489078132724</v>
+        <v>60.03440470271813</v>
       </c>
       <c r="E57">
-        <v>63.49152715334038</v>
+        <v>63.49107790701395</v>
       </c>
       <c r="F57">
         <v>62.13683641908975</v>
@@ -1537,13 +1537,13 @@
         <v>2640</v>
       </c>
       <c r="C58">
-        <v>62.13954609801732</v>
+        <v>62.13624159862142</v>
       </c>
       <c r="D58">
-        <v>60.41149651892726</v>
+        <v>60.40818716209903</v>
       </c>
       <c r="E58">
-        <v>63.86759567710738</v>
+        <v>63.8642960351438</v>
       </c>
       <c r="F58">
         <v>62.05338643156668</v>
@@ -1557,13 +1557,13 @@
         <v>2641</v>
       </c>
       <c r="C59">
-        <v>62.05203335589116</v>
+        <v>62.05280966498748</v>
       </c>
       <c r="D59">
-        <v>60.32430779745958</v>
+        <v>60.32507975573791</v>
       </c>
       <c r="E59">
-        <v>63.77975891432274</v>
+        <v>63.78053957423705</v>
       </c>
       <c r="F59">
         <v>61.84910044207473</v>
@@ -1577,13 +1577,13 @@
         <v>2642</v>
       </c>
       <c r="C60">
-        <v>61.84673823671098</v>
+        <v>61.84852351670406</v>
       </c>
       <c r="D60">
-        <v>60.11932254567392</v>
+        <v>60.12110312023515</v>
       </c>
       <c r="E60">
-        <v>63.57415392774804</v>
+        <v>63.57594391317296</v>
       </c>
       <c r="F60">
         <v>61.80069482724726</v>
@@ -1597,13 +1597,13 @@
         <v>2643</v>
       </c>
       <c r="C61">
-        <v>61.79970370136785</v>
+        <v>61.80011734579665</v>
       </c>
       <c r="D61">
-        <v>60.07261393349782</v>
+        <v>60.07302279616079</v>
       </c>
       <c r="E61">
-        <v>63.52679346923789</v>
+        <v>63.52721189543251</v>
       </c>
       <c r="F61">
         <v>62.17248295684637</v>
@@ -1617,13 +1617,13 @@
         <v>2644</v>
       </c>
       <c r="C62">
-        <v>62.17514384115162</v>
+        <v>62.17190697717261</v>
       </c>
       <c r="D62">
-        <v>60.44832230434584</v>
+        <v>60.445080796984</v>
       </c>
       <c r="E62">
-        <v>63.90196537795739</v>
+        <v>63.89873315736122</v>
       </c>
       <c r="F62">
         <v>62.46975376202855</v>
@@ -1637,13 +1637,13 @@
         <v>2645</v>
       </c>
       <c r="C63">
-        <v>62.47195346420673</v>
+        <v>62.46917767897182</v>
       </c>
       <c r="D63">
-        <v>60.74542195104613</v>
+        <v>60.742640683365</v>
       </c>
       <c r="E63">
-        <v>64.19848497736733</v>
+        <v>64.19571467457864</v>
       </c>
       <c r="F63">
         <v>62.70467974953274</v>
@@ -1657,13 +1657,13 @@
         <v>2646</v>
       </c>
       <c r="C64">
-        <v>62.70638905243074</v>
+        <v>62.70410689934047</v>
       </c>
       <c r="D64">
-        <v>60.98016086472705</v>
+        <v>60.97787293872925</v>
       </c>
       <c r="E64">
-        <v>64.43261724013442</v>
+        <v>64.43034085995168</v>
       </c>
       <c r="F64">
         <v>63.1234053660051</v>
@@ -1677,13 +1677,13 @@
         <v>2647</v>
       </c>
       <c r="C65">
-        <v>63.12723640682458</v>
+        <v>63.12283058644994</v>
       </c>
       <c r="D65">
-        <v>61.40126154182923</v>
+        <v>61.39684883882906</v>
       </c>
       <c r="E65">
-        <v>64.85321127181993</v>
+        <v>64.84881233407083</v>
       </c>
       <c r="F65">
         <v>63.44991627761081</v>
@@ -1697,13 +1697,13 @@
         <v>2648</v>
       </c>
       <c r="C66">
-        <v>63.45302305068225</v>
+        <v>63.44934203299322</v>
       </c>
       <c r="D66">
-        <v>61.7273304330193</v>
+        <v>61.72364129760003</v>
       </c>
       <c r="E66">
-        <v>65.17871566834521</v>
+        <v>65.17504276838642</v>
       </c>
       <c r="F66">
         <v>62.9962466288742</v>
@@ -1717,13 +1717,13 @@
         <v>2649</v>
       </c>
       <c r="C67">
-        <v>62.99087664952998</v>
+        <v>62.99567054971703</v>
       </c>
       <c r="D67">
-        <v>61.26542202094872</v>
+        <v>61.27020921553446</v>
       </c>
       <c r="E67">
-        <v>64.71633127811124</v>
+        <v>64.7211318838996</v>
       </c>
       <c r="F67">
         <v>62.91952190169538</v>
@@ -1737,13 +1737,13 @@
         <v>2650</v>
       </c>
       <c r="C68">
-        <v>62.91816507828911</v>
+        <v>62.91894773897461</v>
       </c>
       <c r="D68">
-        <v>61.1930338776578</v>
+        <v>61.19380957449316</v>
       </c>
       <c r="E68">
-        <v>64.64329627892043</v>
+        <v>64.64408590345606</v>
       </c>
       <c r="F68">
         <v>62.93659988156322</v>
@@ -1757,13 +1757,13 @@
         <v>2651</v>
       </c>
       <c r="C69">
-        <v>62.93621001884269</v>
+        <v>62.93602644088544</v>
       </c>
       <c r="D69">
-        <v>61.21140415393585</v>
+        <v>61.2112135631664</v>
       </c>
       <c r="E69">
-        <v>64.66101588374954</v>
+        <v>64.66083931860449</v>
       </c>
       <c r="F69">
         <v>62.78231639904853</v>
@@ -1777,13 +1777,13 @@
         <v>2652</v>
       </c>
       <c r="C70">
-        <v>62.78008384486493</v>
+        <v>62.78174298570237</v>
       </c>
       <c r="D70">
-        <v>61.05559324791547</v>
+        <v>61.05724538772695</v>
       </c>
       <c r="E70">
-        <v>64.5045744418144</v>
+        <v>64.50624058367778</v>
       </c>
       <c r="F70">
         <v>62.52222354650419</v>
@@ -1797,13 +1797,13 @@
         <v>2653</v>
       </c>
       <c r="C71">
-        <v>62.51880774965472</v>
+        <v>62.52164913566803</v>
       </c>
       <c r="D71">
-        <v>60.79461423369874</v>
+        <v>60.79744825075839</v>
       </c>
       <c r="E71">
-        <v>64.24300126561069</v>
+        <v>64.24585002057766</v>
       </c>
       <c r="F71">
         <v>62.70467974953274</v>
@@ -1817,13 +1817,13 @@
         <v>2654</v>
       </c>
       <c r="C72">
-        <v>62.70607095471382</v>
+        <v>62.70410293696546</v>
       </c>
       <c r="D72">
-        <v>60.98218782963419</v>
+        <v>60.98021283908275</v>
       </c>
       <c r="E72">
-        <v>64.42995407979346</v>
+        <v>64.42799303484817</v>
       </c>
       <c r="F72">
         <v>62.46099399024017</v>
@@ -1837,13 +1837,13 @@
         <v>2655</v>
       </c>
       <c r="C73">
-        <v>62.45787705186031</v>
+        <v>62.46041901158448</v>
       </c>
       <c r="D73">
-        <v>60.7342933688888</v>
+        <v>60.73682878074862</v>
       </c>
       <c r="E73">
-        <v>64.18146073483182</v>
+        <v>64.18400924242034</v>
       </c>
       <c r="F73">
         <v>62.29374726391734</v>
@@ -1857,13 +1857,13 @@
         <v>2656</v>
       </c>
       <c r="C74">
-        <v>62.29141992433173</v>
+        <v>62.29317033617657</v>
       </c>
       <c r="D74">
-        <v>60.56814941594481</v>
+        <v>60.56989290271223</v>
       </c>
       <c r="E74">
-        <v>64.01469043271864</v>
+        <v>64.01644776964092</v>
       </c>
       <c r="F74">
         <v>62.34966820387532</v>
@@ -1877,13 +1877,13 @@
         <v>2657</v>
       </c>
       <c r="C75">
-        <v>62.34969578137081</v>
+        <v>62.34909016318431</v>
       </c>
       <c r="D75">
-        <v>60.62674818109446</v>
+        <v>60.62613570309368</v>
       </c>
       <c r="E75">
-        <v>64.07264338164715</v>
+        <v>64.07204462327493</v>
       </c>
       <c r="F75">
         <v>61.86118155469564</v>
@@ -1897,13 +1897,13 @@
         <v>2658</v>
       </c>
       <c r="C76">
-        <v>61.85553759332148</v>
+        <v>61.86060066044305</v>
       </c>
       <c r="D76">
-        <v>60.13281392565682</v>
+        <v>60.1378703805095</v>
       </c>
       <c r="E76">
-        <v>63.57826126098614</v>
+        <v>63.58333094037661</v>
       </c>
       <c r="F76">
         <v>61.0743073107985</v>
@@ -1917,13 +1917,13 @@
         <v>2659</v>
       </c>
       <c r="C77">
-        <v>61.06359770580747</v>
+        <v>61.07372339356819</v>
       </c>
       <c r="D77">
-        <v>59.34094229893822</v>
+        <v>59.35105767987561</v>
       </c>
       <c r="E77">
-        <v>62.78625311267671</v>
+        <v>62.79638910726077</v>
       </c>
       <c r="F77">
         <v>61.77037513617054</v>
@@ -1937,13 +1937,13 @@
         <v>2660</v>
       </c>
       <c r="C78">
-        <v>61.77627476635498</v>
+        <v>61.76979433586091</v>
       </c>
       <c r="D78">
-        <v>60.05373476922312</v>
+        <v>60.04724912453769</v>
       </c>
       <c r="E78">
-        <v>63.49881476348684</v>
+        <v>63.49233954718413</v>
       </c>
       <c r="F78">
         <v>61.66079958925029</v>
@@ -1957,13 +1957,13 @@
         <v>2661</v>
       </c>
       <c r="C79">
-        <v>61.65920802510886</v>
+        <v>61.66021581188394</v>
       </c>
       <c r="D79">
-        <v>59.93698610715736</v>
+        <v>59.93798926531123</v>
       </c>
       <c r="E79">
-        <v>63.38142994306036</v>
+        <v>63.38244235845666</v>
       </c>
       <c r="F79">
         <v>61.97855001372398</v>
@@ -1977,13 +1977,13 @@
         <v>2662</v>
       </c>
       <c r="C80">
-        <v>61.98064044804143</v>
+        <v>61.97796393719398</v>
       </c>
       <c r="D80">
-        <v>60.25869937327909</v>
+        <v>60.25601844927109</v>
       </c>
       <c r="E80">
-        <v>63.70258152280376</v>
+        <v>63.69990942511688</v>
       </c>
       <c r="F80">
         <v>62.13683641908975</v>
@@ -1997,13 +1997,13 @@
         <v>2663</v>
       </c>
       <c r="C81">
-        <v>62.13761324806959</v>
+        <v>62.13619898026188</v>
       </c>
       <c r="D81">
-        <v>60.41598534124269</v>
+        <v>60.41456559980529</v>
       </c>
       <c r="E81">
-        <v>63.85924115489649</v>
+        <v>63.85783236071847</v>
       </c>
       <c r="F81">
         <v>62.65851545487224</v>
@@ -2017,13 +2017,13 @@
         <v>2664</v>
       </c>
       <c r="C82">
-        <v>62.66275471694959</v>
+        <v>62.65793626786459</v>
       </c>
       <c r="D82">
-        <v>60.94133640702871</v>
+        <v>60.93651263295615</v>
       </c>
       <c r="E82">
-        <v>64.38417302687047</v>
+        <v>64.37935990277302</v>
       </c>
       <c r="F82">
         <v>62.3526066255567</v>
@@ -2037,13 +2037,13 @@
         <v>2665</v>
       </c>
       <c r="C83">
-        <v>62.34887395057616</v>
+        <v>62.35202495654978</v>
       </c>
       <c r="D83">
-        <v>60.6277313081928</v>
+        <v>60.63088521018612</v>
       </c>
       <c r="E83">
-        <v>64.07001659295952</v>
+        <v>64.07316470291343</v>
       </c>
       <c r="F83">
         <v>62.1902798754333</v>
@@ -2057,13 +2057,13 @@
         <v>2666</v>
       </c>
       <c r="C84">
-        <v>62.18828606817865</v>
+        <v>62.1896372322737</v>
       </c>
       <c r="D84">
-        <v>60.46746200625935</v>
+        <v>60.46880853196637</v>
       </c>
       <c r="E84">
-        <v>63.90911013009794</v>
+        <v>63.91046593258103</v>
       </c>
       <c r="F84">
         <v>62.31436984547913</v>
@@ -2077,13 +2077,13 @@
         <v>2667</v>
       </c>
       <c r="C85">
-        <v>62.31483734144074</v>
+        <v>62.31378637650693</v>
       </c>
       <c r="D85">
-        <v>60.59432997727053</v>
+        <v>60.59327461185436</v>
       </c>
       <c r="E85">
-        <v>64.03534470561094</v>
+        <v>64.03429814115948</v>
       </c>
       <c r="F85">
         <v>62.24356567012276</v>
@@ -2097,13 +2097,13 @@
         <v>2668</v>
       </c>
       <c r="C86">
-        <v>62.24238132958213</v>
+        <v>62.24298022303512</v>
       </c>
       <c r="D86">
-        <v>60.52219428541283</v>
+        <v>60.52278882478706</v>
       </c>
       <c r="E86">
-        <v>63.96256837375143</v>
+        <v>63.96317162128317</v>
       </c>
       <c r="F86">
         <v>62.10111936781767</v>
@@ -2117,13 +2117,13 @@
         <v>2669</v>
       </c>
       <c r="C87">
-        <v>62.09934083398539</v>
+        <v>62.10053484382455</v>
       </c>
       <c r="D87">
-        <v>60.37946769206886</v>
+        <v>60.38065730324985</v>
       </c>
       <c r="E87">
-        <v>63.81921397590193</v>
+        <v>63.82041238439926</v>
       </c>
       <c r="F87">
         <v>61.93349867252261</v>
@@ -2137,13 +2137,13 @@
         <v>2670</v>
       </c>
       <c r="C88">
-        <v>61.93148864326817</v>
+        <v>61.93291599215184</v>
       </c>
       <c r="D88">
-        <v>60.21192609695852</v>
+        <v>60.21334888686092</v>
       </c>
       <c r="E88">
-        <v>63.65105118957781</v>
+        <v>63.65248309744276</v>
       </c>
       <c r="F88">
         <v>61.89134895311388</v>
@@ -2157,13 +2157,13 @@
         <v>2671</v>
       </c>
       <c r="C89">
-        <v>61.89041344385468</v>
+        <v>61.89076843146871</v>
       </c>
       <c r="D89">
-        <v>60.17117214655438</v>
+        <v>60.17152255219113</v>
       </c>
       <c r="E89">
-        <v>63.60965474115497</v>
+        <v>63.6100143107463</v>
       </c>
       <c r="F89">
         <v>61.81583555688955</v>
@@ -2177,13 +2177,13 @@
         <v>2672</v>
       </c>
       <c r="C90">
-        <v>61.8146005537833</v>
+        <v>61.81525486073529</v>
       </c>
       <c r="D90">
-        <v>60.09567864931529</v>
+        <v>60.0963283671443</v>
       </c>
       <c r="E90">
-        <v>63.53352245825131</v>
+        <v>63.53418135432628</v>
       </c>
       <c r="F90">
         <v>62.07130107975306</v>
@@ -2197,13 +2197,13 @@
         <v>2673</v>
       </c>
       <c r="C91">
-        <v>62.07289176183402</v>
+        <v>62.07063491926266</v>
       </c>
       <c r="D91">
-        <v>60.35426392781297</v>
+        <v>60.35200148732262</v>
       </c>
       <c r="E91">
-        <v>63.79151959585507</v>
+        <v>63.7892683512027</v>
       </c>
       <c r="F91">
         <v>61.79766515368659</v>
@@ -2217,13 +2217,13 @@
         <v>2674</v>
       </c>
       <c r="C92">
-        <v>61.79485517343871</v>
+        <v>61.79708432966325</v>
       </c>
       <c r="D92">
-        <v>60.07651687440971</v>
+        <v>60.07874220730358</v>
       </c>
       <c r="E92">
-        <v>63.51319347246771</v>
+        <v>63.51542645202291</v>
       </c>
       <c r="F92">
         <v>62.06234597860323</v>
@@ -2237,13 +2237,13 @@
         <v>2675</v>
       </c>
       <c r="C93">
-        <v>62.06377116133697</v>
+        <v>62.06176555684538</v>
       </c>
       <c r="D93">
-        <v>60.34572436585682</v>
+        <v>60.34371527903978</v>
       </c>
       <c r="E93">
-        <v>63.78181795681713</v>
+        <v>63.77981583465098</v>
       </c>
       <c r="F93">
         <v>61.67300763920311</v>
@@ -2257,13 +2257,13 @@
         <v>2676</v>
       </c>
       <c r="C94">
-        <v>61.66957276243868</v>
+        <v>61.67242322850762</v>
       </c>
       <c r="D94">
-        <v>59.95178125191509</v>
+        <v>59.95463074111255</v>
       </c>
       <c r="E94">
-        <v>63.38736427296227</v>
+        <v>63.39021571590269</v>
       </c>
       <c r="F94">
         <v>61.77037513617054</v>
@@ -2277,13 +2277,13 @@
         <v>2677</v>
       </c>
       <c r="C95">
-        <v>61.77044286479582</v>
+        <v>61.76978839920206</v>
       </c>
       <c r="D95">
-        <v>60.05296994686208</v>
+        <v>60.05231275813327</v>
       </c>
       <c r="E95">
-        <v>63.48791578272955</v>
+        <v>63.48726404027086</v>
       </c>
       <c r="F95">
         <v>62.49600766669702</v>
@@ -2297,13 +2297,13 @@
         <v>2678</v>
       </c>
       <c r="C96">
-        <v>62.50051073134465</v>
+        <v>62.49542653303668</v>
       </c>
       <c r="D96">
-        <v>60.78313864676144</v>
+        <v>60.77805147489423</v>
       </c>
       <c r="E96">
-        <v>64.21788281592785</v>
+        <v>64.21280159117913</v>
       </c>
       <c r="F96">
         <v>62.77370650193476</v>
@@ -2317,13 +2317,13 @@
         <v>2679</v>
       </c>
       <c r="C97">
-        <v>62.77539556669572</v>
+        <v>62.77312593666854</v>
       </c>
       <c r="D97">
-        <v>61.05831313114845</v>
+        <v>61.05603914038016</v>
       </c>
       <c r="E97">
-        <v>64.49247800224299</v>
+        <v>64.49021273295693</v>
       </c>
       <c r="F97">
         <v>63.26086294780712</v>
@@ -2337,13 +2337,13 @@
         <v>2680</v>
       </c>
       <c r="C98">
-        <v>63.26475460842585</v>
+        <v>63.26028297602802</v>
       </c>
       <c r="D98">
-        <v>61.54789428138149</v>
+        <v>61.54341732137621</v>
       </c>
       <c r="E98">
-        <v>64.9816149354702</v>
+        <v>64.97714863067982</v>
       </c>
       <c r="F98">
         <v>63.18244302303266</v>
@@ -2357,13 +2357,13 @@
         <v>2681</v>
       </c>
       <c r="C99">
-        <v>63.18111544592416</v>
+        <v>63.18186183877717</v>
       </c>
       <c r="D99">
-        <v>61.46457249574775</v>
+        <v>61.46531384986491</v>
       </c>
       <c r="E99">
-        <v>64.89765839610058</v>
+        <v>64.89840982768943</v>
       </c>
       <c r="F99">
         <v>62.75647443458136</v>
@@ -2377,13 +2377,13 @@
         <v>2682</v>
       </c>
       <c r="C100">
-        <v>62.75196919164794</v>
+        <v>62.75589196451395</v>
       </c>
       <c r="D100">
-        <v>61.03567097291802</v>
+        <v>61.0395884374752</v>
       </c>
       <c r="E100">
-        <v>64.46826741037786</v>
+        <v>64.47219549155271</v>
       </c>
       <c r="F100">
         <v>63.10086430291133</v>
@@ -2397,13 +2397,13 @@
         <v>2683</v>
       </c>
       <c r="C101">
-        <v>63.10314035764387</v>
+        <v>63.10028088530073</v>
       </c>
       <c r="D101">
-        <v>61.38711134965568</v>
+        <v>61.38424761763375</v>
       </c>
       <c r="E101">
-        <v>64.81916936563206</v>
+        <v>64.81631415296771</v>
       </c>
       <c r="F101">
         <v>63.01891776880802</v>
@@ -2417,13 +2417,13 @@
         <v>2684</v>
       </c>
       <c r="C102">
-        <v>63.01765255083457</v>
+        <v>63.01833558253167</v>
       </c>
       <c r="D102">
-        <v>61.30194028314784</v>
+        <v>61.30261926814654</v>
       </c>
       <c r="E102">
-        <v>64.7333648185213</v>
+        <v>64.7340518969168</v>
       </c>
       <c r="F102">
         <v>63.09804470346942</v>
@@ -2437,13 +2437,13 @@
         <v>2685</v>
       </c>
       <c r="C103">
-        <v>63.09809496129208</v>
+        <v>63.09723574977762</v>
       </c>
       <c r="D103">
-        <v>61.38269951592184</v>
+        <v>61.3818331880753</v>
       </c>
       <c r="E103">
-        <v>64.81349040666234</v>
+        <v>64.81263831147994</v>
       </c>
       <c r="F103">
         <v>63.24688416077036</v>
@@ -2457,13 +2457,13 @@
         <v>2686</v>
       </c>
       <c r="C104">
-        <v>63.24749464909195</v>
+        <v>63.24630135294392</v>
       </c>
       <c r="D104">
-        <v>61.53240937660787</v>
+        <v>61.5312119819385</v>
       </c>
       <c r="E104">
-        <v>64.96257992157602</v>
+        <v>64.96139072394934</v>
       </c>
       <c r="F104">
         <v>63.33894633392001</v>
@@ -2477,13 +2477,13 @@
         <v>2687</v>
       </c>
       <c r="C105">
-        <v>63.33910284085027</v>
+        <v>63.33836340557794</v>
       </c>
       <c r="D105">
-        <v>61.62433327670433</v>
+        <v>61.62358964198859</v>
       </c>
       <c r="E105">
-        <v>65.0538724049962</v>
+        <v>65.05313716916729</v>
       </c>
       <c r="F105">
         <v>63.44438380877114</v>
@@ -2497,13 +2497,13 @@
         <v>2688</v>
       </c>
       <c r="C106">
-        <v>63.44461947141937</v>
+        <v>63.44380314134664</v>
       </c>
       <c r="D106">
-        <v>61.73016371513732</v>
+        <v>61.72934373558509</v>
       </c>
       <c r="E106">
-        <v>65.15907522770142</v>
+        <v>65.15826254710819</v>
       </c>
       <c r="F106">
         <v>63.5189307728036</v>
@@ -2517,13 +2517,13 @@
         <v>2689</v>
       </c>
       <c r="C107">
-        <v>63.51895667142621</v>
+        <v>63.51835220313314</v>
       </c>
       <c r="D107">
-        <v>61.80481804068783</v>
+        <v>61.80420930487098</v>
       </c>
       <c r="E107">
-        <v>65.2330953021646</v>
+        <v>65.2324951013953</v>
       </c>
       <c r="F107">
         <v>62.88817048054027</v>
@@ -2537,13 +2537,13 @@
         <v>2690</v>
       </c>
       <c r="C108">
-        <v>62.8825444772536</v>
+        <v>62.88758753264169</v>
       </c>
       <c r="D108">
-        <v>61.16855842505646</v>
+        <v>61.17359768834399</v>
       </c>
       <c r="E108">
-        <v>64.59653052945075</v>
+        <v>64.60157737693939</v>
       </c>
       <c r="F108">
         <v>62.62960293557558</v>
@@ -2557,13 +2557,13 @@
         <v>2691</v>
       </c>
       <c r="C109">
-        <v>62.62673179159731</v>
+        <v>62.62901524865216</v>
       </c>
       <c r="D109">
-        <v>60.91303776688798</v>
+        <v>60.91531608368594</v>
       </c>
       <c r="E109">
-        <v>64.34042581630663</v>
+        <v>64.34271441361837</v>
       </c>
       <c r="F109">
         <v>62.59194754634083</v>
@@ -2577,13 +2577,13 @@
         <v>2692</v>
       </c>
       <c r="C110">
-        <v>62.59103888204949</v>
+        <v>62.59135481190403</v>
       </c>
       <c r="D110">
-        <v>60.87766269349583</v>
+        <v>60.87797332703846</v>
       </c>
       <c r="E110">
-        <v>64.30441507060314</v>
+        <v>64.3047362967696</v>
       </c>
       <c r="F110">
         <v>63.01891776880802</v>
@@ -2597,13 +2597,13 @@
         <v>2693</v>
       </c>
       <c r="C111">
-        <v>63.02216951302541</v>
+        <v>63.01832360396542</v>
       </c>
       <c r="D111">
-        <v>61.30903529586113</v>
+        <v>61.30518418809712</v>
       </c>
       <c r="E111">
-        <v>64.7353037301897</v>
+        <v>64.73146301983371</v>
       </c>
       <c r="F111">
         <v>62.83102876534908</v>
@@ -2617,13 +2617,13 @@
         <v>2694</v>
       </c>
       <c r="C112">
-        <v>62.82882286007673</v>
+        <v>62.83044379696047</v>
       </c>
       <c r="D112">
-        <v>61.11599138950014</v>
+        <v>61.11760786295466</v>
       </c>
       <c r="E112">
-        <v>64.54165433065333</v>
+        <v>64.54327973096628</v>
       </c>
       <c r="F112">
         <v>62.74497728521423</v>
@@ -2637,13 +2637,13 @@
         <v>2695</v>
       </c>
       <c r="C113">
-        <v>62.74366871596991</v>
+        <v>62.74439550455817</v>
       </c>
       <c r="D113">
-        <v>61.03115215248782</v>
+        <v>61.03187437233162</v>
       </c>
       <c r="E113">
-        <v>64.456185279452</v>
+        <v>64.45691663678473</v>
       </c>
       <c r="F113">
         <v>63.01608542329947</v>
@@ -2657,13 +2657,13 @@
         <v>2696</v>
       </c>
       <c r="C114">
-        <v>63.01777808723831</v>
+        <v>63.01550416638024</v>
       </c>
       <c r="D114">
-        <v>61.30554828172784</v>
+        <v>61.30326999394853</v>
       </c>
       <c r="E114">
-        <v>64.73000789274879</v>
+        <v>64.72773833881195</v>
       </c>
       <c r="F114">
         <v>62.97070772397863</v>
@@ -2677,13 +2677,13 @@
         <v>2697</v>
       </c>
       <c r="C115">
-        <v>62.96972564470288</v>
+        <v>62.97012652986406</v>
       </c>
       <c r="D115">
-        <v>61.2578124137703</v>
+        <v>61.25820898030569</v>
       </c>
       <c r="E115">
-        <v>64.68163887563546</v>
+        <v>64.68204407942244</v>
       </c>
       <c r="F115">
         <v>63.18805567267777</v>
@@ -2697,13 +2697,13 @@
         <v>2698</v>
       </c>
       <c r="C116">
-        <v>63.18926297511584</v>
+        <v>63.1874696170789</v>
       </c>
       <c r="D116">
-        <v>61.47764720927356</v>
+        <v>61.47584956014475</v>
       </c>
       <c r="E116">
-        <v>64.90087874095812</v>
+        <v>64.89908967401304</v>
       </c>
       <c r="F116">
         <v>62.81671517316779</v>
@@ -2717,13 +2717,13 @@
         <v>2699</v>
       </c>
       <c r="C117">
-        <v>62.81325632923789</v>
+        <v>62.81612851173966</v>
       </c>
       <c r="D117">
-        <v>61.1018999393572</v>
+        <v>61.10476835045046</v>
       </c>
       <c r="E117">
-        <v>64.52461271911859</v>
+        <v>64.52748867302886</v>
       </c>
       <c r="F117">
         <v>62.73634963636872</v>
@@ -2737,13 +2737,13 @@
         <v>2700</v>
       </c>
       <c r="C118">
-        <v>62.7351514987042</v>
+        <v>62.73576172679579</v>
       </c>
       <c r="D118">
-        <v>61.02410958279447</v>
+        <v>61.02471584035205</v>
       </c>
       <c r="E118">
-        <v>64.44619341461393</v>
+        <v>64.44680761323953</v>
       </c>
       <c r="F118">
         <v>63.15435376000232</v>
@@ -2757,13 +2757,13 @@
         <v>2701</v>
       </c>
       <c r="C119">
-        <v>63.15698268212635</v>
+        <v>63.15377185303858</v>
       </c>
       <c r="D119">
-        <v>61.44618452778397</v>
+        <v>61.44297003788784</v>
       </c>
       <c r="E119">
-        <v>64.86778083646873</v>
+        <v>64.86457366818932</v>
       </c>
       <c r="F119">
         <v>62.97070772397863</v>
@@ -2777,13 +2777,13 @@
         <v>2702</v>
       </c>
       <c r="C120">
-        <v>62.96873901150676</v>
+        <v>62.97010206472072</v>
       </c>
       <c r="D120">
-        <v>61.25824281386794</v>
+        <v>61.25960258698574</v>
       </c>
       <c r="E120">
-        <v>64.67923520914559</v>
+        <v>64.6806015424557</v>
       </c>
       <c r="F120">
         <v>62.31142520241147</v>
@@ -2797,13 +2797,13 @@
         <v>2703</v>
       </c>
       <c r="C121">
-        <v>62.30557277316002</v>
+        <v>62.31083483202328</v>
       </c>
       <c r="D121">
-        <v>60.59521363371903</v>
+        <v>60.6004716421365</v>
       </c>
       <c r="E121">
-        <v>64.015931912601</v>
+        <v>64.02119802191007</v>
       </c>
       <c r="F121">
         <v>62.458073123776</v>
@@ -2817,13 +2817,13 @@
         <v>2704</v>
       </c>
       <c r="C122">
-        <v>62.45859303967703</v>
+        <v>62.45748858994022</v>
       </c>
       <c r="D122">
-        <v>60.74854055343079</v>
+        <v>60.74743278473571</v>
       </c>
       <c r="E122">
-        <v>64.16864552592327</v>
+        <v>64.16754439514473</v>
       </c>
       <c r="F122">
         <v>62.31731400898542</v>
@@ -2837,13 +2837,13 @@
         <v>2705</v>
       </c>
       <c r="C123">
-        <v>62.31570255247708</v>
+        <v>62.31672928153374</v>
       </c>
       <c r="D123">
-        <v>60.60595786708409</v>
+        <v>60.60698141675064</v>
       </c>
       <c r="E123">
-        <v>64.02544723787008</v>
+        <v>64.02647714631684</v>
       </c>
       <c r="F123">
         <v>62.27014975242916</v>
@@ -2857,13 +2857,13 @@
         <v>2706</v>
       </c>
       <c r="C124">
-        <v>62.26922724636134</v>
+        <v>62.2695650200039</v>
       </c>
       <c r="D124">
-        <v>60.55979768714855</v>
+        <v>60.56013219555233</v>
       </c>
       <c r="E124">
-        <v>63.97865680557413</v>
+        <v>63.97899784445547</v>
       </c>
       <c r="F124">
         <v>61.65774628239697</v>
@@ -2877,13 +2877,13 @@
         <v>2707</v>
       </c>
       <c r="C125">
-        <v>61.65261185619603</v>
+        <v>61.65715719740417</v>
       </c>
       <c r="D125">
-        <v>59.94334270962771</v>
+        <v>59.947884617741</v>
       </c>
       <c r="E125">
-        <v>63.36188100276435</v>
+        <v>63.36642977706735</v>
       </c>
       <c r="F125">
         <v>61.83398765248277</v>
@@ -2897,13 +2897,13 @@
         <v>2708</v>
       </c>
       <c r="C126">
-        <v>61.83459952767029</v>
+        <v>61.83339874362733</v>
       </c>
       <c r="D126">
-        <v>60.12563241320671</v>
+        <v>60.12442883562756</v>
       </c>
       <c r="E126">
-        <v>63.54356664213388</v>
+        <v>63.54236865162711</v>
       </c>
       <c r="F126">
         <v>61.94852829520693</v>
